--- a/app/Marktanalyse.xlsx
+++ b/app/Marktanalyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c7cfef5ac10b86a/Dokumente/2 Privat/1 Projekte/OweFlow/OweFlow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c7cfef5ac10b86a/Dokumente/2 Privat/1 Projekte/OweFlow/OweFlow/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="152" documentId="8_{65815810-5862-4EFF-B30A-975EC792948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89036FAF-E6B7-4AA8-AEE2-3EEFF5EF728C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71A0F272-4F1A-4E68-8FED-9B925DC09728}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71A0F272-4F1A-4E68-8FED-9B925DC09728}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,6 +537,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F31D7EB-6683-4013-BAE1-66D763DADF46}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/Marktanalyse.xlsx
+++ b/app/Marktanalyse.xlsx
@@ -1,59 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c7cfef5ac10b86a/Dokumente/2 Privat/1 Projekte/OweFlow/OweFlow/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{65815810-5862-4EFF-B30A-975EC792948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89036FAF-E6B7-4AA8-AEE2-3EEFF5EF728C}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71A0F272-4F1A-4E68-8FED-9B925DC09728}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Tabelle1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Splitwise</t>
-  </si>
-  <si>
-    <t>Tricount</t>
-  </si>
-  <si>
-    <t>Splid</t>
-  </si>
-  <si>
-    <t>Splittr</t>
-  </si>
-  <si>
-    <t>Settle Up</t>
-  </si>
-  <si>
-    <t>Spliit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Features, die unsere App ausmacht
+-Integration von Nicht-Nutzern
+-Spracheingabe
+-Scan von QR
+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Grundfunktionen</t>
+  </si>
+  <si>
+    <t>Erweiterte Funktionen / Besondere Features</t>
+  </si>
+  <si>
+    <t>Fehlende Funktionen</t>
   </si>
   <si>
     <t>Name der App</t>
@@ -62,36 +41,46 @@
     <t xml:space="preserve"> (Schuldenmanagement (ja / nein, wie genau?), Kostenaufteilung, Gruppenfunktionen, Erinnerungen)</t>
   </si>
   <si>
-    <t>Grundfunktionen</t>
-  </si>
-  <si>
-    <t>Erweiterte Funktionen / Besondere Features</t>
-  </si>
-  <si>
-    <t>Fehlende Funktionen</t>
-  </si>
-  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(Verschiedene Währungen, Export von PDF / CSV, Web-Version, Offline)</t>
     </r>
+  </si>
+  <si>
+    <t>Splitwise</t>
+  </si>
+  <si>
+    <t>Schuldenaufteilung (gleichmäßig und benutzerdefiniert) und minimale Transaktionen
+Gruppenerstellung für gemeinsame Ausgaben
+Automatische Berechnung der Schulden („wer wem wie viel schuldet“)
+Erinnerungen an offene Schulden
+Wiederkehrende Ausgaben (z. B. Miete, Abonnements)
+Integration mit Zahlungsdiensten, wenn auch nicht In-App - nur Verknüpfung (z. B. PayPal, Venmo)
+Ausgabenkategorisierung
+Synchronisation über Geräte hinweg</t>
+  </si>
+  <si>
+    <t>Exportfunktion
+Unterstützt über 100 Währungen
+Mehrsprachigkeit</t>
   </si>
   <si>
     <r>
@@ -108,73 +97,25 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Features, die nur mit Pro erhältlich sind:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 unbegrenzt viele Ausgaben, Währungsrechner, Bilder anhängen, Scannen von Kassenbons, Tabellen / Grafiken, Ausgabensuche, Standardaufteilungen speichern</t>
     </r>
   </si>
   <si>
-    <t>Exportfunktion
-Unterstützt über 100 Währungen
-Mehrsprachigkeit</t>
-  </si>
-  <si>
-    <t>Schuldenaufteilung (gleichmäßig und benutzerdefiniert) und minimale Transaktionen
-Gruppenerstellung für gemeinsame Ausgaben
-Automatische Berechnung der Schulden („wer wem wie viel schuldet“)
-Erinnerungen an offene Schulden
-Wiederkehrende Ausgaben (z. B. Miete, Abonnements)
-Integration mit Zahlungsdiensten, wenn auch nicht In-App - nur Verknüpfung (z. B. PayPal, Venmo)
-Ausgabenkategorisierung
-Synchronisation über Geräte hinweg</t>
-  </si>
-  <si>
-    <t>Unterstützung für mehrere Währungen
-Belege können hinzugefügt werden, aber keine automatische Verarbeitung (kein OCR)
-Export</t>
-  </si>
-  <si>
-    <t>Direkte Zahlungsintegration mit PayPal In-App
-Verwendung von Links und QR-Codes
-KI-gestützte Aufteilung von Kosten
-Integration von Nicht-Nutzern
-Visualisierung der Kosten mit Diagrammen
-Erweiterte Sicherheitsfunktionen wie 2FA
-Integration mit Google Calendar
-Gruppenchat
-Temporäre Gruppen
-Gamification (Challenges oder Belohnungen)</t>
-  </si>
-  <si>
-    <t>Exportfunktion in PDF oder Excel
-Unterstützung für über 150 Währungen
-Perfekt für Reisen durch flexible Währungsanpassung</t>
-  </si>
-  <si>
-    <t>Direkte Zahlungsintegration mit PayPal In-App
-Verwendung von Links und QR-Codes
-KI-gestützte Aufteilung von Kosten
-Integration von Nicht-Nutzern
-Synchronisation in Echtzeit
-Visualisierung der Ausgaben mit Diagrammen
-Erinnerungen an ausstehende Zahlungen
-Gruppenchat und temporäre Gruppen
-Erweiterte Sicherheitsfunktionen wie 2FA
-Belegerkennung (OCR)</t>
+    <t>Tricount</t>
   </si>
   <si>
     <r>
@@ -190,20 +131,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -211,13 +150,32 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Fokus liegt wirklich ausschließlich auf smarter Berechnung, sonst wenig Features</t>
     </r>
+  </si>
+  <si>
+    <t>Unterstützung für mehrere Währungen
+Belege können hinzugefügt werden, aber keine automatische Verarbeitung (kein OCR)
+Export</t>
+  </si>
+  <si>
+    <t>Direkte Zahlungsintegration mit PayPal In-App
+Verwendung von Links und QR-Codes
+KI-gestützte Aufteilung von Kosten
+Integration von Nicht-Nutzern
+Visualisierung der Kosten mit Diagrammen
+Erweiterte Sicherheitsfunktionen wie 2FA
+Integration mit Google Calendar
+Gruppenchat
+Temporäre Gruppen
+Gamification (Challenges oder Belohnungen)</t>
+  </si>
+  <si>
+    <t>Splid</t>
   </si>
   <si>
     <r>
@@ -230,16 +188,32 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-&gt; starke Notizen-App Vibes</t>
     </r>
   </si>
   <si>
-    <t>Unterstützt über 150 Währungen</t>
+    <t>Exportfunktion in PDF oder Excel
+Unterstützung für über 150 Währungen
+Perfekt für Reisen durch flexible Währungsanpassung</t>
+  </si>
+  <si>
+    <t>Direkte Zahlungsintegration mit PayPal In-App
+Verwendung von Links und QR-Codes
+KI-gestützte Aufteilung von Kosten
+Integration von Nicht-Nutzern
+Synchronisation in Echtzeit
+Visualisierung der Ausgaben mit Diagrammen
+Erinnerungen an ausstehende Zahlungen
+Gruppenchat und temporäre Gruppen
+Erweiterte Sicherheitsfunktionen wie 2FA
+Belegerkennung (OCR)</t>
+  </si>
+  <si>
+    <t>Splittr</t>
   </si>
   <si>
     <r>
@@ -254,16 +228,21 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-&gt; super einfach / hässlich gehalten, 0 Konkurrenz</t>
     </r>
   </si>
   <si>
+    <t>Unterstützt über 150 Währungen</t>
+  </si>
+  <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>Settle Up</t>
   </si>
   <si>
     <t>Schuldenaufteilung (gleichmäßig und benutzerdefiniert)
@@ -293,6 +272,9 @@
 Keine erweiterten Sicherheitsfunktionen wie 2FA</t>
   </si>
   <si>
+    <t>Spliit</t>
+  </si>
+  <si>
     <t>Open-Source und einfach gehalten
 Kostenlos und ohne Registrierung: Nutzung ohne Werbung, Kontoerstellung oder Einschränkungen
 Schuldenaufteilung: Gleichmäßige und benutzerdefinierte Aufteilung von Ausgaben
@@ -316,22 +298,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -343,18 +331,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF92d050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF83cbeb"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,195 +349,224 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -578,116 +593,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -699,186 +680,203 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F31D7EB-6683-4013-BAE1-66D763DADF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="73.6640625" customWidth="1"/>
-    <col min="4" max="4" width="69.5546875" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" customWidth="1"/>
+    <col min="1" max="1" style="15" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="73.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="78.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="62.25" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -889,21 +887,24 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -913,23 +914,23 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -938,24 +939,24 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="139.5" customFormat="1" s="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -965,24 +966,24 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="138" customFormat="1" s="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -992,24 +993,24 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="138" customFormat="1" s="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1019,23 +1020,23 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="85.5" customFormat="1" s="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2"/>
@@ -1046,24 +1047,24 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="124.5" customFormat="1" s="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1073,22 +1074,22 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="151.5" customFormat="1" s="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1098,12 +1099,12 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1117,12 +1118,12 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1136,12 +1137,12 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1155,12 +1156,12 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1174,12 +1175,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1193,12 +1194,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1212,12 +1213,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1231,12 +1232,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1250,12 +1251,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1269,12 +1270,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1288,12 +1289,12 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1307,12 +1308,12 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1326,12 +1327,12 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1345,12 +1346,12 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1364,12 +1365,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1383,12 +1384,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1402,12 +1403,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1421,12 +1422,12 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1440,12 +1441,12 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1459,12 +1460,12 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1478,12 +1479,12 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1497,12 +1498,12 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1516,12 +1517,12 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1535,12 +1536,12 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1554,12 +1555,12 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1573,12 +1574,12 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1592,89 +1593,88 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>